--- a/messanger_명세서.xlsx
+++ b/messanger_명세서.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2022\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2022\project\messger_back_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDABE2C7-58C2-4064-B4D6-8F6364C97C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9CCD85-BE72-4108-BE0D-8497A2FC26B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="2" r:id="rId1"/>
     <sheet name="flow chart" sheetId="3" r:id="rId2"/>
     <sheet name="process" sheetId="4" r:id="rId3"/>
     <sheet name="user page" sheetId="1" r:id="rId4"/>
-    <sheet name="Promise" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name=" promise page" sheetId="5" r:id="rId5"/>
+    <sheet name="group page" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -46,6 +47,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={3ACD4FAB-C35E-4B56-A479-5AF338000403}</author>
+    <author>tc={29BE564E-043B-45E0-AB21-6B03D2A38E2C}</author>
     <author>tc={4E6FDCD0-AB10-4921-B650-630B0ECD1FB8}</author>
     <author>tc={47C89514-7CDF-4E0F-A3DB-7C779C994EB9}</author>
     <author>tc={E68215AC-2A67-47DB-B149-8CFF7EBEBB63}</author>
@@ -63,7 +65,18 @@
     main 에서 home 으로 패키지와 각 클래스명을 변경해야 할 것 같다</t>
       </text>
     </comment>
-    <comment ref="E28" authorId="1" shapeId="0" xr:uid="{4E6FDCD0-AB10-4921-B650-630B0ECD1FB8}">
+    <comment ref="E24" authorId="1" shapeId="0" xr:uid="{29BE564E-043B-45E0-AB21-6B03D2A38E2C}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    필요한 데이터
+1. 현재 계정의 그룹 수
+2. 현재 계정이 속한 그룹들의 총 인원과 계정들의 이름
+3. 현재 계정이 속한 그룹의 최근 약속들</t>
+      </text>
+    </comment>
+    <comment ref="E28" authorId="2" shapeId="0" xr:uid="{4E6FDCD0-AB10-4921-B650-630B0ECD1FB8}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -72,7 +85,7 @@
 이후 정상적으로 인증이 된다면 main페이지로 이동</t>
       </text>
     </comment>
-    <comment ref="E30" authorId="2" shapeId="0" xr:uid="{47C89514-7CDF-4E0F-A3DB-7C779C994EB9}">
+    <comment ref="E30" authorId="3" shapeId="0" xr:uid="{47C89514-7CDF-4E0F-A3DB-7C779C994EB9}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -88,7 +101,7 @@
  이건 얼마든지 변경 가능</t>
       </text>
     </comment>
-    <comment ref="E31" authorId="3" shapeId="0" xr:uid="{E68215AC-2A67-47DB-B149-8CFF7EBEBB63}">
+    <comment ref="E31" authorId="4" shapeId="0" xr:uid="{E68215AC-2A67-47DB-B149-8CFF7EBEBB63}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -100,7 +113,7 @@
 redirect:/goToMain</t>
       </text>
     </comment>
-    <comment ref="E32" authorId="4" shapeId="0" xr:uid="{39C14229-976F-4F86-838D-C75D1E8DB319}">
+    <comment ref="E32" authorId="5" shapeId="0" xr:uid="{39C14229-976F-4F86-838D-C75D1E8DB319}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -116,7 +129,7 @@
 5. 그룹의 약속</t>
       </text>
     </comment>
-    <comment ref="E33" authorId="5" shapeId="0" xr:uid="{25D25813-D015-426F-9B13-12C6A1172A94}">
+    <comment ref="E33" authorId="6" shapeId="0" xr:uid="{25D25813-D015-426F-9B13-12C6A1172A94}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -129,7 +142,7 @@
 4. 장소</t>
       </text>
     </comment>
-    <comment ref="E34" authorId="6" shapeId="0" xr:uid="{CA47DABF-6AF6-4FE8-9901-7647E4B05DAE}">
+    <comment ref="E34" authorId="7" shapeId="0" xr:uid="{CA47DABF-6AF6-4FE8-9901-7647E4B05DAE}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -139,7 +152,7 @@
 성공하면 약속 리스트 페이지로 이동</t>
       </text>
     </comment>
-    <comment ref="C75" authorId="7" shapeId="0" xr:uid="{0236FB54-EDCF-4F4D-BD40-BFB5F9ED67B4}">
+    <comment ref="C75" authorId="8" shapeId="0" xr:uid="{0236FB54-EDCF-4F4D-BD40-BFB5F9ED67B4}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -151,8 +164,28 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={D016BB6A-1739-4931-88A2-D58AC9C1EEF4}</author>
+  </authors>
+  <commentList>
+    <comment ref="E35" authorId="0" shapeId="0" xr:uid="{D016BB6A-1739-4931-88A2-D58AC9C1EEF4}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    필요가 없음.
+왜 와이?
+그룹의 정보는 이미 UserController에서 걸러서 전달이 됨.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="140">
   <si>
     <t>main</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -283,10 +316,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MainController.java</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Group.java</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -506,27 +535,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>약속정보를 받아 생성한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>createPromise(@PathVariable String id)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>PromiseMapper.java</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>createPromise(Promise newpromise)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>getGroupInfo(@PathjVariable String id)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">계정이 속한 그룹의 정보를 가져온다. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -599,14 +612,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">createPromise(Promise nespromise) </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>약속정보를 받아와 각 약속을 로그에 남겨서 확인을 하고 DB에 저장을 한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>그룹에 새로운 약속 생성을 위해 어떤 그룹인지 분별하여 선택 그룹에서 약속이 생기도록 그룹정보를 가져온다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -744,6 +749,94 @@
   </si>
   <si>
     <t>updateGroupForm을 통하여 전달 받은 데이터를 DB에 저장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/promise</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 계정의 JWT 인증</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1. 계정이 인증이 된다면 promise 페이지 이동과 함께 데이터 전달 (그룹정보)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2. 계정이 인증되지 않는다면 확인 요청 페이지 이동(?)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 새로운 약속에 대한 데이터 입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 완료를 누르면 모달이 뜸, 확인을 누르면 약속 리스트 페이지로 이동이 되며 필요한 데이터 전달(각 그룹들의 약속 정보)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>createPromiseForm()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>약속에 대한 정보를 입력받아 객체에 담아 createPromise로 전달</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>약속정보를 전달 받아 DB에 저장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성하기와 수정하기는 각 따로 있는 페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해서 요청이 들어오면 다르게 파싱이 되어야 한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>updatePromiseForm()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>updatePromise(Promise updatePromise)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 약속에서 수정할 정보들을 객체에 담아 updatePromise로 전달</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정된 약속 정보를 받아 DB에 update</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>controller</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>service</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserController.java</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -751,7 +844,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -792,6 +885,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -807,7 +908,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1208,17 +1309,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1298,7 +1388,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1413,9 +1503,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1446,6 +1533,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1485,28 +1587,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1882,13 +1984,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:colOff>1066800</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>18321</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2656746</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>75414</xdr:rowOff>
     </xdr:to>
@@ -1913,8 +2015,365 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3695700" y="784225"/>
+          <a:off x="3124200" y="784225"/>
           <a:ext cx="3237771" cy="3491714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2819400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2835382</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B2DF18C-95F5-435E-AE9F-DC476BE4A6CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6524625" y="800099"/>
+          <a:ext cx="3225907" cy="3476625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3112182</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3263265</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81695197-A79A-49AC-815D-520D93E4D89A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10027332" y="790575"/>
+          <a:ext cx="3322908" cy="3419475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>818830</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>18524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2808618C-A264-455D-9210-E74259987A5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="638175"/>
+          <a:ext cx="2561905" cy="4209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B7E533F-B6F0-44E1-953A-556DE6734FCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="638175"/>
+          <a:ext cx="2600000" cy="4219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>475929</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>209027</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FA08932-CB34-4DAB-A6DA-545CE38CC31B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5610225" y="647700"/>
+          <a:ext cx="2571429" cy="4180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447355</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BBD747E-1EDD-4116-8E40-26F51B86D21D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11010900" y="638175"/>
+          <a:ext cx="2561905" cy="4257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666430</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>37570</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{180A3DE3-90F7-45D6-B400-35CA4DC388A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8305800" y="628650"/>
+          <a:ext cx="2561905" cy="4238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>723575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9AE0056-42E0-47A5-965F-501F473E552B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13744575" y="619125"/>
+          <a:ext cx="2600000" cy="4180952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2264,6 +2723,12 @@
   <threadedComment ref="B24" dT="2022-01-26T11:46:11.11" personId="{25CC4933-6D44-431D-AAB9-B2486FA57C4A}" id="{3ACD4FAB-C35E-4B56-A479-5AF338000403}">
     <text>main 에서 home 으로 패키지와 각 클래스명을 변경해야 할 것 같다</text>
   </threadedComment>
+  <threadedComment ref="E24" dT="2022-02-08T10:27:51.93" personId="{25CC4933-6D44-431D-AAB9-B2486FA57C4A}" id="{29BE564E-043B-45E0-AB21-6B03D2A38E2C}">
+    <text>필요한 데이터
+1. 현재 계정의 그룹 수
+2. 현재 계정이 속한 그룹들의 총 인원과 계정들의 이름
+3. 현재 계정이 속한 그룹의 최근 약속들</text>
+  </threadedComment>
   <threadedComment ref="E28" dT="2022-02-07T14:42:18.26" personId="{25CC4933-6D44-431D-AAB9-B2486FA57C4A}" id="{4E6FDCD0-AB10-4921-B650-630B0ECD1FB8}">
     <text>id, password를 입력하고 로그인 버튼을 클릭하면 service단에서 JWT토큰 인증을 진행.
 이후 정상적으로 인증이 된다면 main페이지로 이동</text>
@@ -2316,12 +2781,22 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E35" dT="2022-02-08T10:39:19.30" personId="{25CC4933-6D44-431D-AAB9-B2486FA57C4A}" id="{D016BB6A-1739-4931-88A2-D58AC9C1EEF4}">
+    <text>필요가 없음.
+왜 와이?
+그룹의 정보는 이미 UserController에서 걸러서 전달이 됨.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2333,426 +2808,426 @@
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="55"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="62"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="58"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="62"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="58"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="58"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="62"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="58"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="62"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="58"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="62"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="62"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="58"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="62"/>
     </row>
     <row r="11" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="52"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="61"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="65"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="55"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="59"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="58"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="62"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="51"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="58"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="62"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="51"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="58"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="62"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="51"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="58"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="62"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="51"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="58"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="62"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="51"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="58"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="62"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="51"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="58"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="62"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="51"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="58"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="62"/>
     </row>
     <row r="21" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="52"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="61"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="65"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="55"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="59"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="51"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="58"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="62"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="51"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="58"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="62"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="51"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="58"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="62"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="51"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="58"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="62"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="51"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="58"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="62"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="51"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="58"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="62"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="51"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="58"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="62"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="51"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="58"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="62"/>
     </row>
     <row r="31" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="52"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="61"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="65"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="55"/>
+      <c r="A32" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="57"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="59"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="51"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="58"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="62"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="51"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="58"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="62"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="51"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="58"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="62"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="51"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="58"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="62"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="51"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="58"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="62"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="51"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="58"/>
+      <c r="A38" s="55"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="62"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="51"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="58"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="62"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="51"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="58"/>
+      <c r="A40" s="55"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="62"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="65"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="64"/>
+      <c r="A41" s="69"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="68"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="B42" s="67"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="69"/>
+      <c r="A42" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="71"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="73"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="51"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="58"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="62"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="51"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="58"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="62"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="51"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="58"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="62"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="51"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="58"/>
+      <c r="A46" s="55"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="62"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="51"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="58"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="62"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="51"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="58"/>
+      <c r="A48" s="55"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="62"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="51"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="58"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="62"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="51"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="58"/>
+      <c r="A50" s="55"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="62"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="65"/>
-      <c r="B51" s="62"/>
-      <c r="C51" s="63"/>
-      <c r="D51" s="63"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="64"/>
+      <c r="A51" s="69"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="68"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
@@ -4134,11 +4609,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="75"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="14" t="s">
@@ -4152,7 +4627,7 @@
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="74" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -4163,7 +4638,7 @@
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="71"/>
+      <c r="B4" s="75"/>
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
@@ -4172,8 +4647,8 @@
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="71"/>
-      <c r="C5" s="72" t="s">
+      <c r="B5" s="75"/>
+      <c r="C5" s="76" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="16" t="s">
@@ -4181,21 +4656,21 @@
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="71"/>
-      <c r="C6" s="72"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="76"/>
       <c r="D6" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="71"/>
-      <c r="C7" s="72"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="76"/>
       <c r="D7" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="66"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="20" t="s">
         <v>17</v>
       </c>
@@ -4204,7 +4679,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="80" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="19" t="s">
@@ -4213,31 +4688,31 @@
       <c r="D9" s="22"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="71"/>
+      <c r="B10" s="75"/>
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="16"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="71"/>
-      <c r="C11" s="72" t="s">
+      <c r="B11" s="75"/>
+      <c r="C11" s="76" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="16"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="71"/>
-      <c r="C12" s="72"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="16"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="71"/>
-      <c r="C13" s="72"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="76"/>
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="77"/>
+      <c r="B14" s="81"/>
       <c r="C14" s="17" t="s">
         <v>17</v>
       </c>
@@ -4265,8 +4740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4285,134 +4760,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E1" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="79"/>
-      <c r="G1" s="80"/>
+      <c r="E1" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="83"/>
+      <c r="G1" s="84"/>
     </row>
     <row r="2" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E2" s="71" t="s">
-        <v>50</v>
+      <c r="E2" s="75" t="s">
+        <v>49</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E3" s="71"/>
+      <c r="E3" s="75"/>
       <c r="F3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E4" s="71"/>
+      <c r="E4" s="75"/>
       <c r="F4" s="2"/>
       <c r="G4" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E5" s="75"/>
+      <c r="F5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E5" s="71"/>
-      <c r="F5" s="2" t="s">
+    <row r="6" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E6" s="75"/>
+      <c r="F6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E6" s="71"/>
-      <c r="F6" s="2" t="s">
+    <row r="7" spans="5:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="75"/>
+      <c r="F7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G7" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="5:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="71"/>
-      <c r="F7" s="2" t="s">
+    <row r="8" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E8" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="F8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E8" s="71" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="2" t="s">
+    <row r="9" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E9" s="75"/>
+      <c r="F9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E9" s="71"/>
-      <c r="F9" s="2" t="s">
+    <row r="10" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E10" s="75"/>
+      <c r="F10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G10" s="10" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E10" s="71"/>
-      <c r="F10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>68</v>
       </c>
       <c r="L10" s="26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E11" s="71"/>
+      <c r="E11" s="75"/>
       <c r="F11" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G11" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="81"/>
+      <c r="F12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="5:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E12" s="77"/>
-      <c r="F12" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="13" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E13" s="34"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E21" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E22" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>99</v>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E17" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E18" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>7</v>
@@ -4424,10 +4899,10 @@
         <v>21</v>
       </c>
       <c r="F23" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H23" s="27"/>
       <c r="I23" s="7" t="s">
@@ -4436,54 +4911,54 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="43"/>
+    <row r="25" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="42"/>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
       <c r="E25" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F25" s="24"/>
-      <c r="G25" s="43"/>
+      <c r="G25" s="42"/>
       <c r="H25" s="24"/>
       <c r="I25" s="32"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" s="24"/>
       <c r="G26" s="3"/>
       <c r="H26" s="24"/>
       <c r="I26" s="32"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="3"/>
@@ -4491,435 +4966,435 @@
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="42"/>
+      <c r="B28" s="41"/>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="24" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="G28" s="42"/>
+        <v>106</v>
+      </c>
+      <c r="G28" s="41"/>
       <c r="H28" s="24"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="42"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="24" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F29" s="24"/>
-      <c r="G29" s="42"/>
+      <c r="G29" s="41"/>
       <c r="H29" s="24"/>
       <c r="I29" s="32"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="42"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
       <c r="E30" s="24" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="G30" s="42"/>
+        <v>107</v>
+      </c>
+      <c r="G30" s="41"/>
       <c r="H30" s="24"/>
       <c r="I30" s="32"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="42"/>
+      <c r="B31" s="41"/>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="24" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="G31" s="42"/>
+        <v>108</v>
+      </c>
+      <c r="G31" s="41"/>
       <c r="H31" s="24"/>
       <c r="I31" s="32"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="42"/>
+      <c r="B32" s="41"/>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
       <c r="E32" s="24" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="G32" s="42"/>
+        <v>109</v>
+      </c>
+      <c r="G32" s="41"/>
       <c r="H32" s="24"/>
       <c r="I32" s="32"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="42"/>
+      <c r="B33" s="41"/>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
       <c r="E33" s="24" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="G33" s="42"/>
+        <v>110</v>
+      </c>
+      <c r="G33" s="41"/>
       <c r="H33" s="24"/>
       <c r="I33" s="32"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="42"/>
+      <c r="B34" s="41"/>
       <c r="C34" s="20"/>
       <c r="D34" s="20"/>
       <c r="E34" s="24" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="G34" s="42"/>
+        <v>111</v>
+      </c>
+      <c r="G34" s="41"/>
       <c r="H34" s="24"/>
       <c r="I34" s="32"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="42"/>
+      <c r="B35" s="41"/>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
       <c r="E35" s="24" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="G35" s="42"/>
+        <v>113</v>
+      </c>
+      <c r="G35" s="41"/>
       <c r="H35" s="24"/>
       <c r="I35" s="32"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="43"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
       <c r="E36" s="24" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="G36" s="43"/>
+        <v>114</v>
+      </c>
+      <c r="G36" s="42"/>
       <c r="H36" s="24"/>
       <c r="I36" s="32"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="43"/>
+      <c r="B37" s="42"/>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
       <c r="E37" s="24" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="G37" s="43"/>
+        <v>116</v>
+      </c>
+      <c r="G37" s="42"/>
       <c r="H37" s="24"/>
       <c r="I37" s="32"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="42"/>
+      <c r="B38" s="41"/>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
       <c r="E38" s="24" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="G38" s="42"/>
+        <v>117</v>
+      </c>
+      <c r="G38" s="41"/>
       <c r="H38" s="24"/>
       <c r="I38" s="32"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="42"/>
+      <c r="B39" s="41"/>
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
       <c r="E39" s="24" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F39" s="24"/>
-      <c r="G39" s="42"/>
+      <c r="G39" s="41"/>
       <c r="H39" s="24"/>
       <c r="I39" s="32"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="43"/>
+      <c r="B40" s="42"/>
       <c r="C40" s="20"/>
       <c r="D40" s="20"/>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
-      <c r="G40" s="43"/>
+      <c r="G40" s="42"/>
       <c r="H40" s="24"/>
       <c r="I40" s="32"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="43"/>
+      <c r="B41" s="42"/>
       <c r="C41" s="20"/>
       <c r="D41" s="20"/>
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
-      <c r="G41" s="43"/>
+      <c r="G41" s="42"/>
       <c r="H41" s="24"/>
       <c r="I41" s="32"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="43"/>
+      <c r="B42" s="42"/>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
-      <c r="G42" s="43"/>
+      <c r="G42" s="42"/>
       <c r="H42" s="24"/>
       <c r="I42" s="32"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="43"/>
+      <c r="B43" s="42"/>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
-      <c r="G43" s="43"/>
+      <c r="G43" s="42"/>
       <c r="H43" s="24"/>
       <c r="I43" s="32"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="43"/>
+      <c r="B44" s="42"/>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
-      <c r="G44" s="43"/>
+      <c r="G44" s="42"/>
       <c r="H44" s="24"/>
       <c r="I44" s="32"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="43"/>
+      <c r="B45" s="42"/>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
-      <c r="G45" s="43"/>
+      <c r="G45" s="42"/>
       <c r="H45" s="24"/>
       <c r="I45" s="32"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="43"/>
+      <c r="B46" s="42"/>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
       <c r="E46" s="24"/>
       <c r="F46" s="24"/>
-      <c r="G46" s="43"/>
+      <c r="G46" s="42"/>
       <c r="H46" s="24"/>
       <c r="I46" s="32"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="43"/>
+      <c r="B47" s="42"/>
       <c r="C47" s="20"/>
       <c r="D47" s="20"/>
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
-      <c r="G47" s="43"/>
+      <c r="G47" s="42"/>
       <c r="H47" s="24"/>
       <c r="I47" s="32"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="42"/>
+      <c r="B48" s="41"/>
       <c r="C48" s="20"/>
       <c r="D48" s="20"/>
       <c r="E48" s="24"/>
       <c r="F48" s="24"/>
-      <c r="G48" s="42"/>
+      <c r="G48" s="41"/>
       <c r="H48" s="24"/>
       <c r="I48" s="32"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="42"/>
+      <c r="B49" s="41"/>
       <c r="C49" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="G49" s="42"/>
+        <v>43</v>
+      </c>
+      <c r="G49" s="41"/>
       <c r="H49" s="24"/>
       <c r="I49" s="32"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B50" s="42"/>
+      <c r="B50" s="41"/>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
       <c r="E50" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G50" s="42"/>
+        <v>46</v>
+      </c>
+      <c r="G50" s="41"/>
       <c r="H50" s="24"/>
       <c r="I50" s="32"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B51" s="42"/>
+      <c r="B51" s="41"/>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
       <c r="E51" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F51" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="F51" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="G51" s="42"/>
+      <c r="G51" s="41"/>
       <c r="H51" s="24"/>
       <c r="I51" s="32"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="43"/>
+      <c r="B52" s="42"/>
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
       <c r="E52" s="24"/>
       <c r="F52" s="24"/>
-      <c r="G52" s="43"/>
+      <c r="G52" s="42"/>
       <c r="H52" s="24"/>
       <c r="I52" s="32"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="43"/>
+      <c r="B53" s="42"/>
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
       <c r="E53" s="24"/>
       <c r="F53" s="24"/>
-      <c r="G53" s="43"/>
+      <c r="G53" s="42"/>
       <c r="H53" s="24"/>
       <c r="I53" s="32"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="43"/>
+      <c r="B54" s="42"/>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
       <c r="E54" s="24"/>
       <c r="F54" s="24"/>
-      <c r="G54" s="43"/>
+      <c r="G54" s="42"/>
       <c r="H54" s="24"/>
       <c r="I54" s="32"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="43"/>
+      <c r="B55" s="42"/>
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
       <c r="E55" s="24"/>
       <c r="F55" s="24"/>
-      <c r="G55" s="43"/>
+      <c r="G55" s="42"/>
       <c r="H55" s="24"/>
       <c r="I55" s="32"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B56" s="43"/>
+      <c r="B56" s="42"/>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
       <c r="E56" s="24"/>
       <c r="F56" s="24"/>
-      <c r="G56" s="43"/>
+      <c r="G56" s="42"/>
       <c r="H56" s="24"/>
       <c r="I56" s="32"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B57" s="43"/>
+      <c r="B57" s="42"/>
       <c r="C57" s="20"/>
       <c r="D57" s="20"/>
       <c r="E57" s="24"/>
       <c r="F57" s="24"/>
-      <c r="G57" s="43"/>
+      <c r="G57" s="42"/>
       <c r="H57" s="24"/>
       <c r="I57" s="32"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="43"/>
+      <c r="B58" s="42"/>
       <c r="C58" s="20"/>
       <c r="D58" s="20"/>
       <c r="E58" s="24"/>
       <c r="F58" s="24"/>
-      <c r="G58" s="43"/>
+      <c r="G58" s="42"/>
       <c r="H58" s="24"/>
       <c r="I58" s="32"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="43"/>
+      <c r="B59" s="42"/>
       <c r="C59" s="20"/>
       <c r="D59" s="20"/>
       <c r="E59" s="24"/>
       <c r="F59" s="24"/>
-      <c r="G59" s="43"/>
+      <c r="G59" s="42"/>
       <c r="H59" s="24"/>
       <c r="I59" s="32"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="43"/>
+      <c r="B60" s="42"/>
       <c r="C60" s="20"/>
       <c r="D60" s="20"/>
       <c r="E60" s="24"/>
       <c r="F60" s="24"/>
-      <c r="G60" s="43"/>
+      <c r="G60" s="42"/>
       <c r="H60" s="24"/>
       <c r="I60" s="32"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="43"/>
+      <c r="B61" s="42"/>
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
       <c r="E61" s="24"/>
       <c r="F61" s="24"/>
-      <c r="G61" s="43"/>
+      <c r="G61" s="42"/>
       <c r="H61" s="24"/>
       <c r="I61" s="32"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>110</v>
-      </c>
-      <c r="B62" s="43"/>
+        <v>103</v>
+      </c>
+      <c r="B62" s="42"/>
       <c r="C62" s="20"/>
       <c r="D62" s="20"/>
       <c r="E62" s="24"/>
       <c r="F62" s="24"/>
-      <c r="G62" s="43"/>
+      <c r="G62" s="42"/>
       <c r="H62" s="24"/>
       <c r="I62" s="32"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B63" s="43"/>
+      <c r="B63" s="42"/>
       <c r="C63" s="20"/>
       <c r="D63" s="20"/>
       <c r="E63" s="24"/>
       <c r="F63" s="24"/>
-      <c r="G63" s="43"/>
+      <c r="G63" s="42"/>
       <c r="H63" s="24"/>
       <c r="I63" s="32"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="43"/>
+      <c r="B64" s="42"/>
       <c r="C64" s="20"/>
       <c r="D64" s="20"/>
       <c r="E64" s="24"/>
       <c r="F64" s="24"/>
-      <c r="G64" s="43"/>
+      <c r="G64" s="42"/>
       <c r="H64" s="24"/>
       <c r="I64" s="32"/>
     </row>
@@ -4929,20 +5404,20 @@
         <v>11</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E65" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F65" s="24"/>
       <c r="G65" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H65" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I65" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
@@ -4950,14 +5425,14 @@
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F66" s="24"/>
       <c r="G66" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H66" s="24" t="s">
         <v>35</v>
-      </c>
-      <c r="H66" s="24" t="s">
-        <v>36</v>
       </c>
       <c r="I66" s="29"/>
     </row>
@@ -4966,92 +5441,92 @@
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F67" s="24"/>
       <c r="G67" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H67" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H67" s="24" t="s">
-        <v>38</v>
-      </c>
       <c r="I67" s="30"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B68" s="42"/>
+      <c r="B68" s="41"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="24"/>
       <c r="F68" s="24"/>
-      <c r="G68" s="42"/>
+      <c r="G68" s="41"/>
       <c r="H68" s="24"/>
       <c r="I68" s="30"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>95</v>
-      </c>
-      <c r="B69" s="42"/>
+        <v>88</v>
+      </c>
+      <c r="B69" s="41"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="24"/>
       <c r="F69" s="24"/>
-      <c r="G69" s="42"/>
+      <c r="G69" s="41"/>
       <c r="H69" s="24"/>
       <c r="I69" s="30"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>95</v>
-      </c>
-      <c r="B70" s="42"/>
+        <v>88</v>
+      </c>
+      <c r="B70" s="41"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="24"/>
       <c r="F70" s="24"/>
-      <c r="G70" s="42"/>
+      <c r="G70" s="41"/>
       <c r="H70" s="24"/>
       <c r="I70" s="30"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B71" s="42"/>
+      <c r="B71" s="41"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="24"/>
       <c r="F71" s="24"/>
-      <c r="G71" s="42"/>
+      <c r="G71" s="41"/>
       <c r="H71" s="24"/>
       <c r="I71" s="30"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B72" s="42"/>
+      <c r="B72" s="41"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="24"/>
       <c r="F72" s="24"/>
-      <c r="G72" s="42"/>
+      <c r="G72" s="41"/>
       <c r="H72" s="24"/>
       <c r="I72" s="30"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="42"/>
+      <c r="B73" s="41"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="24"/>
       <c r="F73" s="24"/>
-      <c r="G73" s="42"/>
+      <c r="G73" s="41"/>
       <c r="H73" s="24"/>
       <c r="I73" s="30"/>
     </row>
-    <row r="74" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="44"/>
-      <c r="C74" s="45"/>
-      <c r="D74" s="45"/>
-      <c r="E74" s="46"/>
-      <c r="F74" s="46"/>
-      <c r="G74" s="44"/>
-      <c r="H74" s="46"/>
-      <c r="I74" s="47"/>
+    <row r="74" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="43"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="45"/>
+      <c r="F74" s="45"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="45"/>
+      <c r="I74" s="46"/>
     </row>
     <row r="75" spans="1:9" ht="165" x14ac:dyDescent="0.3">
       <c r="B75" s="3"/>
@@ -5059,7 +5534,7 @@
         <v>13</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>23</v>
@@ -5070,14 +5545,14 @@
       </c>
       <c r="H75" s="24"/>
       <c r="I75" s="25" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>23</v>
@@ -5095,7 +5570,7 @@
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>23</v>
@@ -5304,11 +5779,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B1:I29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5319,160 +5794,356 @@
     <col min="7" max="7" width="67.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E1" s="78" t="s">
+    <row r="1" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E1" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="83"/>
+      <c r="G1" s="84"/>
+    </row>
+    <row r="2" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E2" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="79"/>
-      <c r="G1" s="80"/>
-    </row>
-    <row r="2" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E2" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="5:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="5:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E3" s="36" t="s">
+      <c r="F3" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="G3" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="38" t="s">
+    </row>
+    <row r="13" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="39" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="40" t="s">
-        <v>76</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" s="41" t="s">
+      <c r="D23" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="39"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="40"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
+      <c r="F24" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="40"/>
-      <c r="C25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="40" t="s">
-        <v>81</v>
-      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="40"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="40"/>
-      <c r="C27" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="40"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="39"/>
       <c r="E27" s="40"/>
       <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="40"/>
-      <c r="C28" s="6" t="s">
+      <c r="B28" s="39"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="39"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="39"/>
+      <c r="E29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F29" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="39"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="39"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="39"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="39"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="39"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="39"/>
+      <c r="C35" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="41" t="s">
+      <c r="D35" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="39"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="39"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="39"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="39"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>88</v>
       </c>
-      <c r="F28" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E29" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" s="41" t="s">
-        <v>90</v>
-      </c>
+      <c r="B40" s="39"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="39"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="39"/>
+      <c r="C42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="39"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="39"/>
+      <c r="C44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5482,11 +6153,119 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" style="23" customWidth="1"/>
+    <col min="5" max="5" width="32.75" style="23" customWidth="1"/>
+    <col min="6" max="6" width="29.375" style="23" customWidth="1"/>
+    <col min="7" max="7" width="9" style="23"/>
+    <col min="8" max="8" width="32.75" style="23" customWidth="1"/>
+    <col min="9" max="9" width="24.75" style="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="84"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C27" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C28" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C29" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8567F055-DEC7-4764-A0BD-8DED236A0A93}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
